--- a/data/example_input.xlsx
+++ b/data/example_input.xlsx
@@ -9,12 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Mode_1" sheetId="1" r:id="rId1"/>
     <sheet name="Mode_2" sheetId="3" r:id="rId2"/>
-    <sheet name="Manual" sheetId="2" r:id="rId3"/>
+    <sheet name="Mode_3" sheetId="4" r:id="rId3"/>
+    <sheet name="Mode_4" sheetId="5" r:id="rId4"/>
+    <sheet name="Manual" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4263" uniqueCount="4225">
   <si>
     <t>H4-0704BD125-01.DT01</t>
   </si>
@@ -12673,9 +12675,6 @@
     <t>example</t>
   </si>
   <si>
-    <t>10,20</t>
-  </si>
-  <si>
     <t>Between</t>
   </si>
   <si>
@@ -12689,6 +12688,21 @@
   </si>
   <si>
     <t>off</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>Event 3</t>
+  </si>
+  <si>
+    <t>not-equal</t>
+  </si>
+  <si>
+    <t>100:300</t>
+  </si>
+  <si>
+    <t>hot</t>
   </si>
 </sst>
 </file>
@@ -12862,7 +12876,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -12891,25 +12905,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -13227,21 +13254,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.375" customWidth="1"/>
+    <col min="1" max="1" width="32.5" customWidth="1"/>
     <col min="2" max="2" width="27.125" customWidth="1"/>
-    <col min="3" max="3" width="18.625" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
     <col min="4" max="4" width="21.875" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="29.5" customWidth="1"/>
+    <col min="6" max="6" width="16.125" customWidth="1"/>
+    <col min="7" max="7" width="23.625" customWidth="1"/>
     <col min="8" max="8" width="26.625" customWidth="1"/>
-    <col min="9" max="9" width="16.25" customWidth="1"/>
+    <col min="9" max="9" width="16.25" style="29" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -13264,13 +13292,13 @@
         <v>4204</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>4216</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>4217</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="27" t="s">
         <v>4218</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>4219</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -13298,7 +13326,7 @@
       <c r="H2" s="2" t="s">
         <v>4208</v>
       </c>
-      <c r="I2" s="14">
+      <c r="I2" s="28">
         <v>20</v>
       </c>
     </row>
@@ -13323,7 +13351,7 @@
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
+      <c r="I3" s="28"/>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -13342,22 +13370,29 @@
         <v>4191</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>4220</v>
+        <v>4219</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>4216</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>4215</v>
+        <v>4205</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>4224</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="F5" s="1"/>
+      <c r="I5" s="30"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Wronging input type" error="Check your niput type." sqref="I1:I1048576">
+      <formula1>1</formula1>
+      <formula2>100</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -13365,10 +13400,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13379,9 +13414,9 @@
     <col min="4" max="4" width="21.625" customWidth="1"/>
     <col min="5" max="5" width="26.125" customWidth="1"/>
     <col min="6" max="6" width="18.25" customWidth="1"/>
-    <col min="7" max="7" width="21.5" customWidth="1"/>
-    <col min="8" max="8" width="28.625" customWidth="1"/>
-    <col min="9" max="9" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="8" max="8" width="20.625" customWidth="1"/>
+    <col min="9" max="9" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -13404,13 +13439,13 @@
         <v>4204</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>4216</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>4217</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>4218</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>4219</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -13488,10 +13523,39 @@
         <v>42</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>4216</v>
-      </c>
-      <c r="I4" s="25">
-        <v>100300</v>
+        <v>4215</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>4223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>4221</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>3685</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>4220</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>4202</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>1266</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>4222</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>4224</v>
       </c>
     </row>
   </sheetData>
@@ -13501,10 +13565,34 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J4183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13513,26 +13601,27 @@
     <col min="4" max="4" width="11.75" customWidth="1"/>
     <col min="6" max="6" width="15.875" customWidth="1"/>
     <col min="8" max="8" width="17.375" customWidth="1"/>
+    <col min="10" max="10" width="20.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>4188</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="23" t="s">
         <v>4195</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="F1" s="21" t="s">
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="F1" s="19" t="s">
         <v>4204</v>
       </c>
       <c r="G1" s="15"/>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="24" t="s">
         <v>4203</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="24" t="s">
+      <c r="I1" s="25"/>
+      <c r="J1" s="20" t="s">
         <v>4214</v>
       </c>
     </row>
@@ -13548,10 +13637,10 @@
       <c r="F2" s="5" t="s">
         <v>4212</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="16" t="s">
         <v>4205</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="9" t="s">
         <v>4210</v>
       </c>
       <c r="J2" s="5">
@@ -13570,14 +13659,14 @@
       <c r="F3" s="7" t="s">
         <v>4213</v>
       </c>
-      <c r="H3" s="18" t="s">
-        <v>4206</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>4211</v>
-      </c>
-      <c r="J3" s="22" t="s">
-        <v>4215</v>
+      <c r="H3" s="17" t="s">
+        <v>4222</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>4210</v>
+      </c>
+      <c r="J3" s="6">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -13589,47 +13678,56 @@
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="13"/>
-      <c r="H4" s="18" t="s">
-        <v>4207</v>
-      </c>
-      <c r="I4" s="10" t="s">
+      <c r="H4" s="17" t="s">
+        <v>4206</v>
+      </c>
+      <c r="I4" s="11" t="s">
         <v>4211</v>
       </c>
-      <c r="J4" s="22" t="s">
-        <v>4215</v>
+      <c r="J4" s="26">
+        <v>0.43055555555555558</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="18" t="s">
-        <v>4208</v>
-      </c>
-      <c r="I5" s="20" t="s">
-        <v>4210</v>
-      </c>
-      <c r="J5" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H5" s="17" t="s">
+        <v>4207</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>4211</v>
+      </c>
+      <c r="J5" s="26">
+        <v>0.43055555555555558</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="19" t="s">
-        <v>4209</v>
-      </c>
-      <c r="I6" s="12" t="s">
+      <c r="H6" s="17" t="s">
+        <v>4208</v>
+      </c>
+      <c r="I6" s="22" t="s">
         <v>4210</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>4209</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>4210</v>
+      </c>
+      <c r="J7" s="7">
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
